--- a/MasterClassified/bin/Debug/Resources/号码单.xlsx
+++ b/MasterClassified/bin/Debug/Resources/号码单.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mysteap\work_office\ProjectOut\Masterclassified\MasterClassified\MasterClassified\bin\Debug\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="号码单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>期号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,14 +59,22 @@
   </si>
   <si>
     <t>2 9 2 8 8 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开奖日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +113,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,112 +392,179 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>20161216</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>20161217</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>20161218</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>20161219</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>20161220</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>20161221</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>20161222</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42748</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>20161223</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>20161224</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>20161225</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42751</v>
       </c>
     </row>
   </sheetData>

--- a/MasterClassified/bin/Debug/Resources/号码单.xlsx
+++ b/MasterClassified/bin/Debug/Resources/号码单.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mysteap\work_office\ProjectOut\Masterclassified12\Masterclassified\MasterClassified\bin\Debug\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="号码单" sheetId="1" r:id="rId1"/>
+    <sheet name="彩票类型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>期号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,52 +35,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 9 2 8 8 2 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>4 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>5 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>6 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>7 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>8 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>9 9 2 8 8 2 7</t>
-  </si>
-  <si>
-    <t>1 0 2 8 8 2 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 9 2 8 8 2 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>开奖日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本号码1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本号码2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别号码1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别号码2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加选特别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体彩10选3</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>七星彩</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体彩10选3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 8 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 1 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 9 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 9 0 8 6 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 9 4 8 1 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 0 4 8 9 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 4 3 8 0 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 9 0 3 8 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 9 2 8 6 4 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 9 4 3 0 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 9 3 6 8 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 9 0 8 3 2 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 9 4 8 3 2 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,12 +177,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,16 +211,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,28 +502,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,18 +531,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20161216</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -440,13 +553,16 @@
       <c r="D2" s="1">
         <v>42742</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20161217</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -454,13 +570,16 @@
       <c r="D3" s="1">
         <v>42743</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20161218</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -468,13 +587,16 @@
       <c r="D4" s="1">
         <v>42744</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20161219</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -482,13 +604,16 @@
       <c r="D5" s="1">
         <v>42745</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20161220</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -496,13 +621,16 @@
       <c r="D6" s="1">
         <v>42746</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20161221</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -510,13 +638,16 @@
       <c r="D7" s="1">
         <v>42747</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20161222</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -524,13 +655,16 @@
       <c r="D8" s="1">
         <v>42748</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20161223</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -538,33 +672,110 @@
       <c r="D9" s="1">
         <v>42749</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>20161224</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
         <v>42750</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>20161225</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
         <v>42751</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20170110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42745</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20170111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42746</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>20170112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42747</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20170113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -572,4 +783,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>